--- a/Capstone Project/1 Combined/Model per Year MSRP v2.xlsx
+++ b/Capstone Project/1 Combined/Model per Year MSRP v2.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Capstone\Capstone-Project-Data-Modeling-and-PowerBI\Capstone Project\Taralynn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mszuc\Desktop\Capstone-Project-Data-Modeling-and-PowerBI\Capstone Project\1 Combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEA2659-0F84-44E9-B0FD-54191619AB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD173B4A-6A6B-4678-AAFA-AFBEC6A84471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{A4D9D9D0-4D7C-42D8-9AC4-884D62F656DC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="4" xr2:uid="{A4D9D9D0-4D7C-42D8-9AC4-884D62F656DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
+    <sheet name="2017" sheetId="3" r:id="rId2"/>
+    <sheet name="2018" sheetId="4" r:id="rId3"/>
+    <sheet name="2019" sheetId="5" r:id="rId4"/>
+    <sheet name="2020" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -543,17 +541,17 @@
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -564,7 +562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -575,7 +573,7 @@
         <v>16950</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -586,7 +584,7 @@
         <v>23795</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -597,7 +595,7 @@
         <v>23215</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -608,7 +606,7 @@
         <v>21133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -619,7 +617,7 @@
         <v>25650</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -630,7 +628,7 @@
         <v>19650</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -652,17 +650,17 @@
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -673,7 +671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -684,7 +682,7 @@
         <v>20890</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -695,7 +693,7 @@
         <v>24505</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -706,7 +704,7 @@
         <v>25995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -717,7 +715,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -728,7 +726,7 @@
         <v>28345</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -739,7 +737,7 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -760,17 +758,17 @@
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -781,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -792,7 +790,7 @@
         <v>22680</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -803,7 +801,7 @@
         <v>25070</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -814,7 +812,7 @@
         <v>27055</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -825,7 +823,7 @@
         <v>30690</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -836,7 +834,7 @@
         <v>32225</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -847,7 +845,7 @@
         <v>21545</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -868,17 +866,17 @@
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -889,7 +887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -900,7 +898,7 @@
         <v>23360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -911,7 +909,7 @@
         <v>25822</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -922,7 +920,7 @@
         <v>28137</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -933,7 +931,7 @@
         <v>31610</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -944,7 +942,7 @@
         <v>33514</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -955,7 +953,7 @@
         <v>22191</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -976,17 +974,17 @@
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -997,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1008,7 +1006,7 @@
         <v>24062</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1019,7 +1017,7 @@
         <v>26596</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1030,7 +1028,7 @@
         <v>28981</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1041,7 +1039,7 @@
         <v>32559</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1052,7 +1050,7 @@
         <v>34519</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1063,7 +1061,7 @@
         <v>22857</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>44</v>
       </c>
